--- a/医療文書担当一覧データベース.xlsx
+++ b/医療文書担当一覧データベース.xlsx
@@ -69,7 +69,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -441,54 +441,70 @@
   </sheetPr>
   <dimension ref="A1:I619"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B594" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A597" sqref="A597"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
+  <cols>
+    <col width="14.6640625" customWidth="1" style="5" min="1" max="1"/>
+    <col width="11.88671875" customWidth="1" style="5" min="2" max="2"/>
+    <col width="16.5546875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="41.33203125" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.88671875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="11.88671875" customWidth="1" style="4" min="7" max="7"/>
+    <col width="14.6640625" customWidth="1" style="5" min="8" max="8"/>
+    <col width="35.5546875" customWidth="1" style="5" min="9" max="9"/>
+    <col width="16.5546875" customWidth="1" style="5" min="10" max="13"/>
+    <col width="8.88671875" customWidth="1" style="5" min="14" max="14"/>
+    <col width="8.88671875" customWidth="1" style="5" min="15" max="16384"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="23.4" customFormat="1" customHeight="1" s="4">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>預り日</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>患者ID</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>患者名</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>文書名</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>診療科</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>医師名</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>担当者名</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>医師依頼日</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>備考</t>
         </is>
@@ -523,7 +539,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -564,7 +580,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -605,7 +621,7 @@
           <t>増田秀輔</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -646,7 +662,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -674,7 +690,7 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>脊髄症状判定用</t>
+          <t>日常生活動作検査表</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -687,7 +703,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -715,7 +731,7 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>神経学的所見（初診時)</t>
+          <t>共栄火災海上保険「後遺障害診断書」</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
@@ -728,7 +744,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -756,7 +772,7 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>日常生活動作検査表</t>
+          <t>脊髄症状判定用</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -769,7 +785,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -797,7 +813,7 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>共栄火災海上保険「後遺障害診断書」</t>
+          <t>神経学的所見の推移</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -810,7 +826,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -838,7 +854,7 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>神経学的所見の推移</t>
+          <t>神経学的所見（初診時)</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -851,7 +867,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -892,7 +908,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -933,7 +949,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -974,7 +990,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -1015,7 +1031,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G14" s="3" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -1043,7 +1059,7 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>傷病手当申請書</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
@@ -1056,7 +1072,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G15" s="3" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>植田</t>
         </is>
@@ -1084,7 +1100,7 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>傷病手当申請書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -1097,7 +1113,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G16" s="4" t="inlineStr">
         <is>
           <t>植田</t>
         </is>
@@ -1138,7 +1154,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G17" s="3" t="inlineStr">
+      <c r="G17" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -1179,7 +1195,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G18" s="3" t="inlineStr">
+      <c r="G18" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -1220,7 +1236,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G19" s="3" t="inlineStr">
+      <c r="G19" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -1261,7 +1277,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G20" s="3" t="inlineStr">
+      <c r="G20" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -1302,7 +1318,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G21" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -1343,7 +1359,7 @@
           <t>藤井俊樹</t>
         </is>
       </c>
-      <c r="G22" s="3" t="inlineStr">
+      <c r="G22" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -1384,7 +1400,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G23" s="3" t="inlineStr">
+      <c r="G23" s="4" t="inlineStr">
         <is>
           <t>植田</t>
         </is>
@@ -1425,7 +1441,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G24" s="3" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -1466,7 +1482,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="G25" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -1507,7 +1523,7 @@
           <t>花川博義</t>
         </is>
       </c>
-      <c r="G26" s="3" t="inlineStr">
+      <c r="G26" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -1535,7 +1551,7 @@
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>メットライフ生命「入院・手術等証明書（診断書）［一般用］」</t>
+          <t>なないろ生命「入院・手術・通院等証明書（診断書）」</t>
         </is>
       </c>
       <c r="E27" s="4" t="inlineStr">
@@ -1548,7 +1564,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G27" s="3" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -1589,7 +1605,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G28" s="3" t="inlineStr">
+      <c r="G28" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -1617,7 +1633,7 @@
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>なないろ生命「入院・手術・通院等証明書（診断書）」</t>
+          <t>メットライフ生命「入院・手術等証明書（診断書）［一般用］」</t>
         </is>
       </c>
       <c r="E29" s="4" t="inlineStr">
@@ -1630,7 +1646,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G29" s="3" t="inlineStr">
+      <c r="G29" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -1671,7 +1687,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G30" s="3" t="inlineStr">
+      <c r="G30" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -1712,7 +1728,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G31" s="3" t="inlineStr">
+      <c r="G31" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -1753,7 +1769,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G32" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -1794,7 +1810,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G33" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -1835,7 +1851,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G34" s="3" t="inlineStr">
+      <c r="G34" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -1876,7 +1892,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G35" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -1917,7 +1933,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G36" s="3" t="inlineStr">
+      <c r="G36" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -1958,7 +1974,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G37" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -1999,7 +2015,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G38" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -2040,7 +2056,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G39" s="3" t="inlineStr">
+      <c r="G39" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -2081,7 +2097,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G40" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -2122,7 +2138,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G41" s="3" t="inlineStr">
+      <c r="G41" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -2163,7 +2179,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G42" s="3" t="inlineStr">
+      <c r="G42" s="4" t="inlineStr">
         <is>
           <t>植田</t>
         </is>
@@ -2191,7 +2207,7 @@
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E43" s="4" t="inlineStr">
@@ -2204,7 +2220,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G43" s="3" t="inlineStr">
+      <c r="G43" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -2232,7 +2248,7 @@
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E44" s="4" t="inlineStr">
@@ -2245,7 +2261,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G44" s="3" t="inlineStr">
+      <c r="G44" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -2286,7 +2302,7 @@
           <t>藤井紗由梨</t>
         </is>
       </c>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="G45" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -2327,7 +2343,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G46" s="3" t="inlineStr">
+      <c r="G46" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -2368,7 +2384,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G47" s="3" t="inlineStr">
+      <c r="G47" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -2409,7 +2425,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="G48" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -2450,7 +2466,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G49" s="3" t="inlineStr">
+      <c r="G49" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -2491,7 +2507,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G50" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -2532,7 +2548,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G51" s="3" t="inlineStr">
+      <c r="G51" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -2573,7 +2589,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="G52" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -2614,7 +2630,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -2655,7 +2671,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="G54" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -2696,7 +2712,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="G55" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -2737,7 +2753,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G56" s="3" t="inlineStr">
+      <c r="G56" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -2778,7 +2794,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G57" s="3" t="inlineStr">
+      <c r="G57" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -2819,7 +2835,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="G58" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -2860,7 +2876,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G59" s="3" t="inlineStr">
+      <c r="G59" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -2901,7 +2917,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G60" s="3" t="inlineStr">
+      <c r="G60" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -2942,7 +2958,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G61" s="3" t="inlineStr">
+      <c r="G61" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -2983,7 +2999,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G62" s="3" t="inlineStr">
+      <c r="G62" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -3024,7 +3040,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G63" s="3" t="inlineStr">
+      <c r="G63" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -3065,7 +3081,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr">
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -3106,7 +3122,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G65" s="3" t="inlineStr">
+      <c r="G65" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -3147,7 +3163,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G66" s="3" t="inlineStr">
+      <c r="G66" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -3188,7 +3204,7 @@
           <t>松井崇生</t>
         </is>
       </c>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="G67" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -3229,7 +3245,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="G68" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -3270,7 +3286,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G69" s="3" t="inlineStr">
+      <c r="G69" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -3311,7 +3327,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G70" s="3" t="inlineStr">
+      <c r="G70" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -3352,7 +3368,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G71" s="3" t="inlineStr">
+      <c r="G71" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -3393,7 +3409,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G72" s="3" t="inlineStr">
+      <c r="G72" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -3434,7 +3450,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G73" s="3" t="inlineStr">
+      <c r="G73" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -3475,7 +3491,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G74" s="3" t="inlineStr">
+      <c r="G74" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -3516,7 +3532,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G75" s="3" t="inlineStr">
+      <c r="G75" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -3557,7 +3573,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G76" s="3" t="inlineStr">
+      <c r="G76" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -3598,7 +3614,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="G77" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -3639,7 +3655,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G78" s="3" t="inlineStr">
+      <c r="G78" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -3680,7 +3696,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G79" s="3" t="inlineStr">
+      <c r="G79" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -3721,7 +3737,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G80" s="3" t="inlineStr">
+      <c r="G80" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -3762,7 +3778,7 @@
           <t>栗田康寿</t>
         </is>
       </c>
-      <c r="G81" s="3" t="inlineStr">
+      <c r="G81" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -3803,7 +3819,7 @@
           <t>竹田伸也</t>
         </is>
       </c>
-      <c r="G82" s="3" t="inlineStr">
+      <c r="G82" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -3844,7 +3860,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G83" s="3" t="inlineStr">
+      <c r="G83" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -3885,7 +3901,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G84" s="3" t="inlineStr">
+      <c r="G84" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -3926,7 +3942,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G85" s="3" t="inlineStr">
+      <c r="G85" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -3967,7 +3983,7 @@
           <t>生駒透</t>
         </is>
       </c>
-      <c r="G86" s="3" t="inlineStr">
+      <c r="G86" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -4008,7 +4024,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G87" s="3" t="inlineStr">
+      <c r="G87" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -4049,7 +4065,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G88" s="3" t="inlineStr">
+      <c r="G88" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -4090,7 +4106,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G89" s="3" t="inlineStr">
+      <c r="G89" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -4131,7 +4147,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G90" s="3" t="inlineStr">
+      <c r="G90" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -4172,7 +4188,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G91" s="3" t="inlineStr">
+      <c r="G91" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -4213,7 +4229,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G92" s="3" t="inlineStr">
+      <c r="G92" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -4254,7 +4270,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G93" s="3" t="inlineStr">
+      <c r="G93" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -4295,7 +4311,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G94" s="3" t="inlineStr">
+      <c r="G94" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -4336,7 +4352,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G95" s="3" t="inlineStr">
+      <c r="G95" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -4377,7 +4393,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G96" s="3" t="inlineStr">
+      <c r="G96" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -4418,7 +4434,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G97" s="3" t="inlineStr">
+      <c r="G97" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -4459,7 +4475,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G98" s="3" t="inlineStr">
+      <c r="G98" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -4500,7 +4516,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G99" s="3" t="inlineStr">
+      <c r="G99" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -4541,7 +4557,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G100" s="3" t="inlineStr">
+      <c r="G100" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -4569,7 +4585,7 @@
       </c>
       <c r="D101" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>就労可否証明書</t>
         </is>
       </c>
       <c r="E101" s="4" t="inlineStr">
@@ -4582,7 +4598,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G101" s="3" t="inlineStr">
+      <c r="G101" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -4610,7 +4626,7 @@
       </c>
       <c r="D102" s="3" t="inlineStr">
         <is>
-          <t>就労可否証明書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E102" s="4" t="inlineStr">
@@ -4623,7 +4639,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G102" s="3" t="inlineStr">
+      <c r="G102" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -4664,7 +4680,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G103" s="3" t="inlineStr">
+      <c r="G103" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -4705,7 +4721,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G104" s="3" t="inlineStr">
+      <c r="G104" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -4746,7 +4762,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G105" s="3" t="inlineStr">
+      <c r="G105" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -4787,7 +4803,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G106" s="3" t="inlineStr">
+      <c r="G106" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -4828,7 +4844,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G107" s="3" t="inlineStr">
+      <c r="G107" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -4869,7 +4885,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G108" s="3" t="inlineStr">
+      <c r="G108" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -4910,7 +4926,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G109" s="3" t="inlineStr">
+      <c r="G109" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -4951,7 +4967,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G110" s="3" t="inlineStr">
+      <c r="G110" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -4992,7 +5008,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G111" s="3" t="inlineStr">
+      <c r="G111" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -5033,7 +5049,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G112" s="3" t="inlineStr">
+      <c r="G112" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -5074,7 +5090,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G113" s="3" t="inlineStr">
+      <c r="G113" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -5115,7 +5131,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G114" s="3" t="inlineStr">
+      <c r="G114" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -5156,7 +5172,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G115" s="3" t="inlineStr">
+      <c r="G115" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -5197,7 +5213,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G116" s="3" t="inlineStr">
+      <c r="G116" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -5238,7 +5254,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G117" s="3" t="inlineStr">
+      <c r="G117" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -5279,7 +5295,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G118" s="3" t="inlineStr">
+      <c r="G118" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -5307,7 +5323,7 @@
       </c>
       <c r="D119" s="3" t="inlineStr">
         <is>
-          <t>なないろ生命「入院・手術・通院等証明書（診断書）」</t>
+          <t>三井住友海上あいおい生命「入院・手術等証明書（診断書）」</t>
         </is>
       </c>
       <c r="E119" s="4" t="inlineStr">
@@ -5320,7 +5336,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G119" s="3" t="inlineStr">
+      <c r="G119" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -5348,7 +5364,7 @@
       </c>
       <c r="D120" s="3" t="inlineStr">
         <is>
-          <t>三井住友海上あいおい生命「入院・手術等証明書（診断書）」</t>
+          <t>なないろ生命「入院・手術・通院等証明書（診断書）」</t>
         </is>
       </c>
       <c r="E120" s="4" t="inlineStr">
@@ -5361,7 +5377,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G120" s="3" t="inlineStr">
+      <c r="G120" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -5402,7 +5418,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G121" s="3" t="inlineStr">
+      <c r="G121" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -5443,7 +5459,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G122" s="3" t="inlineStr">
+      <c r="G122" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -5484,7 +5500,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G123" s="3" t="inlineStr">
+      <c r="G123" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -5525,7 +5541,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G124" s="3" t="inlineStr">
+      <c r="G124" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -5566,7 +5582,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G125" s="3" t="inlineStr">
+      <c r="G125" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -5594,7 +5610,7 @@
       </c>
       <c r="D126" s="3" t="inlineStr">
         <is>
-          <t>かんぽ生命「入院・手術証明書（診断書）」</t>
+          <t>アフラック生命「診断書兼入院証明書」</t>
         </is>
       </c>
       <c r="E126" s="4" t="inlineStr">
@@ -5607,7 +5623,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G126" s="3" t="inlineStr">
+      <c r="G126" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -5635,7 +5651,7 @@
       </c>
       <c r="D127" s="3" t="inlineStr">
         <is>
-          <t>アフラック生命「診断書兼入院証明書」</t>
+          <t>かんぽ生命「入院・手術証明書（診断書）」</t>
         </is>
       </c>
       <c r="E127" s="4" t="inlineStr">
@@ -5648,7 +5664,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G127" s="3" t="inlineStr">
+      <c r="G127" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -5689,7 +5705,7 @@
           <t>藤井紗由梨</t>
         </is>
       </c>
-      <c r="G128" s="3" t="inlineStr">
+      <c r="G128" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -5730,7 +5746,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G129" s="3" t="inlineStr">
+      <c r="G129" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -5771,7 +5787,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G130" s="3" t="inlineStr">
+      <c r="G130" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -5812,7 +5828,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G131" s="3" t="inlineStr">
+      <c r="G131" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -5853,7 +5869,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G132" s="3" t="inlineStr">
+      <c r="G132" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -5894,7 +5910,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G133" s="3" t="inlineStr">
+      <c r="G133" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -5935,7 +5951,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G134" s="3" t="inlineStr">
+      <c r="G134" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -5976,7 +5992,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G135" s="3" t="inlineStr">
+      <c r="G135" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -6017,7 +6033,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G136" s="3" t="inlineStr">
+      <c r="G136" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -6045,7 +6061,7 @@
       </c>
       <c r="D137" s="3" t="inlineStr">
         <is>
-          <t>健康保険傷病手当金支給申請書（療養担当者記入用）</t>
+          <t>就労可否証明書</t>
         </is>
       </c>
       <c r="E137" s="4" t="inlineStr">
@@ -6058,7 +6074,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G137" s="3" t="inlineStr">
+      <c r="G137" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -6086,7 +6102,7 @@
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>就労可否証明書</t>
+          <t>健康保険傷病手当金支給申請書（療養担当者記入用）</t>
         </is>
       </c>
       <c r="E138" s="4" t="inlineStr">
@@ -6099,7 +6115,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G138" s="3" t="inlineStr">
+      <c r="G138" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -6140,7 +6156,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G139" s="3" t="inlineStr">
+      <c r="G139" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -6181,7 +6197,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G140" s="3" t="inlineStr">
+      <c r="G140" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -6222,7 +6238,7 @@
           <t>土谷智史</t>
         </is>
       </c>
-      <c r="G141" s="3" t="inlineStr">
+      <c r="G141" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -6263,7 +6279,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G142" s="3" t="inlineStr">
+      <c r="G142" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -6304,7 +6320,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G143" s="3" t="inlineStr">
+      <c r="G143" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -6345,7 +6361,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G144" s="3" t="inlineStr">
+      <c r="G144" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -6386,7 +6402,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G145" s="3" t="inlineStr">
+      <c r="G145" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -6427,7 +6443,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G146" s="3" t="inlineStr">
+      <c r="G146" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -6468,7 +6484,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G147" s="3" t="inlineStr">
+      <c r="G147" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -6509,7 +6525,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G148" s="3" t="inlineStr">
+      <c r="G148" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -6550,7 +6566,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G149" s="3" t="inlineStr">
+      <c r="G149" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -6591,7 +6607,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G150" s="3" t="inlineStr">
+      <c r="G150" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -6632,7 +6648,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G151" s="3" t="inlineStr">
+      <c r="G151" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -6673,7 +6689,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G152" s="3" t="inlineStr">
+      <c r="G152" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -6714,7 +6730,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G153" s="3" t="inlineStr">
+      <c r="G153" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -6755,7 +6771,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G154" s="3" t="inlineStr">
+      <c r="G154" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -6796,7 +6812,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G155" s="3" t="inlineStr">
+      <c r="G155" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -6837,7 +6853,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G156" s="3" t="inlineStr">
+      <c r="G156" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -6878,7 +6894,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G157" s="3" t="inlineStr">
+      <c r="G157" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -6919,7 +6935,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G158" s="3" t="inlineStr">
+      <c r="G158" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -6960,7 +6976,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G159" s="3" t="inlineStr">
+      <c r="G159" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -7001,7 +7017,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G160" s="3" t="inlineStr">
+      <c r="G160" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -7042,7 +7058,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G161" s="3" t="inlineStr">
+      <c r="G161" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -7083,7 +7099,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G162" s="3" t="inlineStr">
+      <c r="G162" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -7124,7 +7140,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G163" s="3" t="inlineStr">
+      <c r="G163" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -7165,7 +7181,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G164" s="3" t="inlineStr">
+      <c r="G164" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -7206,7 +7222,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G165" s="3" t="inlineStr">
+      <c r="G165" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -7247,7 +7263,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G166" s="3" t="inlineStr">
+      <c r="G166" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -7288,7 +7304,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G167" s="3" t="inlineStr">
+      <c r="G167" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -7329,7 +7345,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G168" s="3" t="inlineStr">
+      <c r="G168" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -7370,7 +7386,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G169" s="3" t="inlineStr">
+      <c r="G169" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -7411,7 +7427,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G170" s="3" t="inlineStr">
+      <c r="G170" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -7452,7 +7468,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G171" s="3" t="inlineStr">
+      <c r="G171" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -7493,7 +7509,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G172" s="3" t="inlineStr">
+      <c r="G172" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -7534,7 +7550,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G173" s="3" t="inlineStr">
+      <c r="G173" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -7575,7 +7591,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G174" s="3" t="inlineStr">
+      <c r="G174" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -7603,7 +7619,7 @@
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>SOMPOひまわり生命「入院・手術・通院等証明書（診断書）」</t>
+          <t>メットライフ生命「入院・手術等証明書（診断書）［一般用］」</t>
         </is>
       </c>
       <c r="E175" s="4" t="inlineStr">
@@ -7616,7 +7632,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G175" s="3" t="inlineStr">
+      <c r="G175" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -7644,7 +7660,7 @@
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>メットライフ生命「入院・手術等証明書（診断書）［一般用］」</t>
+          <t>SOMPOひまわり生命「入院・手術・通院等証明書（診断書）」</t>
         </is>
       </c>
       <c r="E176" s="4" t="inlineStr">
@@ -7657,7 +7673,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G176" s="3" t="inlineStr">
+      <c r="G176" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -7698,7 +7714,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G177" s="3" t="inlineStr">
+      <c r="G177" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -7739,7 +7755,7 @@
           <t>田中伸弥</t>
         </is>
       </c>
-      <c r="G178" s="3" t="inlineStr">
+      <c r="G178" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -7780,7 +7796,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G179" s="3" t="inlineStr">
+      <c r="G179" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -7821,7 +7837,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G180" s="3" t="inlineStr">
+      <c r="G180" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -7862,7 +7878,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G181" s="3" t="inlineStr">
+      <c r="G181" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -7903,7 +7919,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G182" s="3" t="inlineStr">
+      <c r="G182" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -7944,7 +7960,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G183" s="3" t="inlineStr">
+      <c r="G183" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -7985,7 +8001,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G184" s="3" t="inlineStr">
+      <c r="G184" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -8026,7 +8042,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G185" s="3" t="inlineStr">
+      <c r="G185" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -8067,7 +8083,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G186" s="3" t="inlineStr">
+      <c r="G186" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -8108,7 +8124,7 @@
           <t>藤井俊樹</t>
         </is>
       </c>
-      <c r="G187" s="3" t="inlineStr">
+      <c r="G187" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -8149,7 +8165,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G188" s="3" t="inlineStr">
+      <c r="G188" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -8177,7 +8193,7 @@
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>健康保険傷病手当金支給申請書（療養担当者記入用）</t>
+          <t>アフラック生命「入院・手術証明書（診断書）」</t>
         </is>
       </c>
       <c r="E189" s="4" t="inlineStr">
@@ -8190,7 +8206,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G189" s="3" t="inlineStr">
+      <c r="G189" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -8218,7 +8234,7 @@
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>アフラック生命「入院・手術証明書（診断書）」</t>
+          <t>健康保険傷病手当金支給申請書（療養担当者記入用）</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
@@ -8231,7 +8247,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G190" s="3" t="inlineStr">
+      <c r="G190" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -8272,7 +8288,7 @@
           <t>鈴木貴文</t>
         </is>
       </c>
-      <c r="G191" s="3" t="inlineStr">
+      <c r="G191" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -8313,7 +8329,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G192" s="3" t="inlineStr">
+      <c r="G192" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -8354,7 +8370,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G193" s="3" t="inlineStr">
+      <c r="G193" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -8395,7 +8411,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G194" s="3" t="inlineStr">
+      <c r="G194" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -8436,7 +8452,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G195" s="3" t="inlineStr">
+      <c r="G195" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -8477,7 +8493,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G196" s="3" t="inlineStr">
+      <c r="G196" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -8518,7 +8534,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G197" s="3" t="inlineStr">
+      <c r="G197" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -8559,7 +8575,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G198" s="3" t="inlineStr">
+      <c r="G198" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -8600,7 +8616,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G199" s="3" t="inlineStr">
+      <c r="G199" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -8641,7 +8657,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G200" s="3" t="inlineStr">
+      <c r="G200" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -8682,7 +8698,7 @@
           <t>松井崇生</t>
         </is>
       </c>
-      <c r="G201" s="3" t="inlineStr">
+      <c r="G201" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -8723,7 +8739,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G202" s="3" t="inlineStr">
+      <c r="G202" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -8764,7 +8780,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G203" s="3" t="inlineStr">
+      <c r="G203" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -8805,7 +8821,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G204" s="3" t="inlineStr">
+      <c r="G204" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -8833,7 +8849,7 @@
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
@@ -8846,7 +8862,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G205" s="3" t="inlineStr">
+      <c r="G205" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -8874,7 +8890,7 @@
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
@@ -8887,7 +8903,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G206" s="3" t="inlineStr">
+      <c r="G206" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -8928,7 +8944,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G207" s="3" t="inlineStr">
+      <c r="G207" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -8969,7 +8985,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G208" s="3" t="inlineStr">
+      <c r="G208" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -9010,7 +9026,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G209" s="3" t="inlineStr">
+      <c r="G209" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -9051,7 +9067,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G210" s="3" t="inlineStr">
+      <c r="G210" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -9092,7 +9108,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G211" s="3" t="inlineStr">
+      <c r="G211" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -9133,7 +9149,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G212" s="3" t="inlineStr">
+      <c r="G212" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -9174,7 +9190,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G213" s="3" t="inlineStr">
+      <c r="G213" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -9215,7 +9231,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G214" s="3" t="inlineStr">
+      <c r="G214" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -9256,7 +9272,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G215" s="3" t="inlineStr">
+      <c r="G215" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -9297,7 +9313,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G216" s="3" t="inlineStr">
+      <c r="G216" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -9338,7 +9354,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G217" s="3" t="inlineStr">
+      <c r="G217" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9379,7 +9395,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G218" s="3" t="inlineStr">
+      <c r="G218" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9420,7 +9436,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G219" s="3" t="inlineStr">
+      <c r="G219" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -9461,7 +9477,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G220" s="3" t="inlineStr">
+      <c r="G220" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -9502,7 +9518,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G221" s="3" t="inlineStr">
+      <c r="G221" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9543,7 +9559,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G222" s="3" t="inlineStr">
+      <c r="G222" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -9584,7 +9600,7 @@
           <t>兼氏歩</t>
         </is>
       </c>
-      <c r="G223" s="3" t="inlineStr">
+      <c r="G223" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9625,7 +9641,7 @@
           <t>兼氏歩</t>
         </is>
       </c>
-      <c r="G224" s="3" t="inlineStr">
+      <c r="G224" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9666,7 +9682,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G225" s="3" t="inlineStr">
+      <c r="G225" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9707,7 +9723,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G226" s="3" t="inlineStr">
+      <c r="G226" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -9748,7 +9764,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G227" s="3" t="inlineStr">
+      <c r="G227" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -9789,7 +9805,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G228" s="3" t="inlineStr">
+      <c r="G228" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -9830,7 +9846,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G229" s="3" t="inlineStr">
+      <c r="G229" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -9871,7 +9887,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G230" s="3" t="inlineStr">
+      <c r="G230" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -9912,7 +9928,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G231" s="3" t="inlineStr">
+      <c r="G231" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -9953,7 +9969,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G232" s="3" t="inlineStr">
+      <c r="G232" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -9994,7 +10010,7 @@
           <t>竹田伸也</t>
         </is>
       </c>
-      <c r="G233" s="3" t="inlineStr">
+      <c r="G233" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10035,7 +10051,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G234" s="3" t="inlineStr">
+      <c r="G234" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -10076,7 +10092,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G235" s="3" t="inlineStr">
+      <c r="G235" s="4" t="inlineStr">
         <is>
           <t>小牧</t>
         </is>
@@ -10117,7 +10133,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G236" s="3" t="inlineStr">
+      <c r="G236" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -10158,7 +10174,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G237" s="3" t="inlineStr">
+      <c r="G237" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -10199,7 +10215,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G238" s="3" t="inlineStr">
+      <c r="G238" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -10240,7 +10256,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G239" s="3" t="inlineStr">
+      <c r="G239" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -10281,7 +10297,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G240" s="3" t="inlineStr">
+      <c r="G240" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10322,7 +10338,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G241" s="3" t="inlineStr">
+      <c r="G241" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10363,7 +10379,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G242" s="3" t="inlineStr">
+      <c r="G242" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10404,7 +10420,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G243" s="3" t="inlineStr">
+      <c r="G243" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -10445,7 +10461,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G244" s="3" t="inlineStr">
+      <c r="G244" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10486,7 +10502,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G245" s="3" t="inlineStr">
+      <c r="G245" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -10527,7 +10543,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G246" s="3" t="inlineStr">
+      <c r="G246" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -10568,7 +10584,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G247" s="3" t="inlineStr">
+      <c r="G247" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -10609,7 +10625,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G248" s="3" t="inlineStr">
+      <c r="G248" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10650,7 +10666,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G249" s="3" t="inlineStr">
+      <c r="G249" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -10691,7 +10707,7 @@
           <t>小野地雄貴</t>
         </is>
       </c>
-      <c r="G250" s="3" t="inlineStr">
+      <c r="G250" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -10732,7 +10748,7 @@
           <t>渡部明彦</t>
         </is>
       </c>
-      <c r="G251" s="3" t="inlineStr">
+      <c r="G251" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -10773,7 +10789,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G252" s="3" t="inlineStr">
+      <c r="G252" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -10814,7 +10830,7 @@
           <t>田中伸弥</t>
         </is>
       </c>
-      <c r="G253" s="3" t="inlineStr">
+      <c r="G253" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -10855,7 +10871,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G254" s="3" t="inlineStr">
+      <c r="G254" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -10896,7 +10912,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G255" s="3" t="inlineStr">
+      <c r="G255" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -10937,7 +10953,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G256" s="3" t="inlineStr">
+      <c r="G256" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -10978,7 +10994,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G257" s="3" t="inlineStr">
+      <c r="G257" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -11019,7 +11035,7 @@
           <t>田中伸弥</t>
         </is>
       </c>
-      <c r="G258" s="3" t="inlineStr">
+      <c r="G258" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -11060,7 +11076,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G259" s="3" t="inlineStr">
+      <c r="G259" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11101,7 +11117,7 @@
           <t>竹田祐二</t>
         </is>
       </c>
-      <c r="G260" s="3" t="inlineStr">
+      <c r="G260" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -11142,7 +11158,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G261" s="3" t="inlineStr">
+      <c r="G261" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -11183,7 +11199,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G262" s="3" t="inlineStr">
+      <c r="G262" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -11224,7 +11240,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G263" s="3" t="inlineStr">
+      <c r="G263" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -11265,7 +11281,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G264" s="3" t="inlineStr">
+      <c r="G264" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11306,7 +11322,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G265" s="3" t="inlineStr">
+      <c r="G265" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11347,7 +11363,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G266" s="3" t="inlineStr">
+      <c r="G266" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -11388,7 +11404,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G267" s="3" t="inlineStr">
+      <c r="G267" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11429,7 +11445,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G268" s="3" t="inlineStr">
+      <c r="G268" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11470,7 +11486,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G269" s="3" t="inlineStr">
+      <c r="G269" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -11511,7 +11527,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G270" s="3" t="inlineStr">
+      <c r="G270" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -11552,7 +11568,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G271" s="3" t="inlineStr">
+      <c r="G271" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -11593,7 +11609,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G272" s="3" t="inlineStr">
+      <c r="G272" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -11634,7 +11650,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G273" s="3" t="inlineStr">
+      <c r="G273" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11675,7 +11691,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G274" s="3" t="inlineStr">
+      <c r="G274" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11716,7 +11732,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G275" s="3" t="inlineStr">
+      <c r="G275" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -11757,7 +11773,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G276" s="3" t="inlineStr">
+      <c r="G276" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -11798,7 +11814,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G277" s="3" t="inlineStr">
+      <c r="G277" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -11839,7 +11855,7 @@
           <t>増田秀輔</t>
         </is>
       </c>
-      <c r="G278" s="3" t="inlineStr">
+      <c r="G278" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -11880,7 +11896,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G279" s="3" t="inlineStr">
+      <c r="G279" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -11921,7 +11937,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G280" s="3" t="inlineStr">
+      <c r="G280" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -11962,7 +11978,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G281" s="3" t="inlineStr">
+      <c r="G281" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -12003,7 +12019,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G282" s="3" t="inlineStr">
+      <c r="G282" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -12044,7 +12060,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G283" s="3" t="inlineStr">
+      <c r="G283" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -12085,7 +12101,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G284" s="3" t="inlineStr">
+      <c r="G284" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -12126,7 +12142,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G285" s="3" t="inlineStr">
+      <c r="G285" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -12167,7 +12183,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G286" s="3" t="inlineStr">
+      <c r="G286" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -12208,7 +12224,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G287" s="3" t="inlineStr">
+      <c r="G287" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -12249,7 +12265,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G288" s="3" t="inlineStr">
+      <c r="G288" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -12290,7 +12306,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G289" s="3" t="inlineStr">
+      <c r="G289" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -12331,7 +12347,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G290" s="3" t="inlineStr">
+      <c r="G290" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -12359,7 +12375,7 @@
       </c>
       <c r="D291" s="3" t="inlineStr">
         <is>
-          <t>障害年金：診断書（肢体の障害用）（A3）</t>
+          <t>肢体不自由用［富山県］</t>
         </is>
       </c>
       <c r="E291" s="4" t="inlineStr">
@@ -12372,7 +12388,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G291" s="3" t="inlineStr">
+      <c r="G291" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -12400,7 +12416,7 @@
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t>肢体不自由用［富山県］</t>
+          <t>障害年金：診断書（肢体の障害用）（A3）</t>
         </is>
       </c>
       <c r="E292" s="4" t="inlineStr">
@@ -12413,7 +12429,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G292" s="3" t="inlineStr">
+      <c r="G292" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -12454,7 +12470,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G293" s="3" t="inlineStr">
+      <c r="G293" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -12495,7 +12511,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G294" s="3" t="inlineStr">
+      <c r="G294" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -12523,7 +12539,7 @@
       </c>
       <c r="D295" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E295" s="4" t="inlineStr">
@@ -12536,14 +12552,14 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G295" s="3" t="inlineStr">
+      <c r="G295" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
       </c>
       <c r="H295" s="6" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="I295" s="3" t="inlineStr"/>
@@ -12564,7 +12580,7 @@
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E296" s="4" t="inlineStr">
@@ -12577,14 +12593,14 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G296" s="3" t="inlineStr">
+      <c r="G296" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
       </c>
       <c r="H296" s="6" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="I296" s="3" t="inlineStr"/>
@@ -12618,7 +12634,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G297" s="3" t="inlineStr">
+      <c r="G297" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -12659,7 +12675,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G298" s="3" t="inlineStr">
+      <c r="G298" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -12700,7 +12716,7 @@
           <t>植田義之</t>
         </is>
       </c>
-      <c r="G299" s="3" t="inlineStr">
+      <c r="G299" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -12741,7 +12757,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G300" s="3" t="inlineStr">
+      <c r="G300" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -12782,7 +12798,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G301" s="3" t="inlineStr">
+      <c r="G301" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -12823,7 +12839,7 @@
           <t>生駒透</t>
         </is>
       </c>
-      <c r="G302" s="3" t="inlineStr">
+      <c r="G302" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -12864,7 +12880,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G303" s="3" t="inlineStr">
+      <c r="G303" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -12905,7 +12921,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G304" s="3" t="inlineStr">
+      <c r="G304" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -12946,7 +12962,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G305" s="3" t="inlineStr">
+      <c r="G305" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -12987,7 +13003,7 @@
           <t>堀田孝裕</t>
         </is>
       </c>
-      <c r="G306" s="3" t="inlineStr">
+      <c r="G306" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -13028,7 +13044,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G307" s="3" t="inlineStr">
+      <c r="G307" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13069,7 +13085,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G308" s="3" t="inlineStr">
+      <c r="G308" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13110,7 +13126,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G309" s="3" t="inlineStr">
+      <c r="G309" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13151,7 +13167,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G310" s="3" t="inlineStr">
+      <c r="G310" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13192,7 +13208,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G311" s="3" t="inlineStr">
+      <c r="G311" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -13233,7 +13249,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G312" s="3" t="inlineStr">
+      <c r="G312" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -13261,7 +13277,7 @@
       </c>
       <c r="D313" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E313" s="4" t="inlineStr">
@@ -13274,7 +13290,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G313" s="3" t="inlineStr">
+      <c r="G313" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -13302,7 +13318,7 @@
       </c>
       <c r="D314" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E314" s="4" t="inlineStr">
@@ -13315,7 +13331,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G314" s="3" t="inlineStr">
+      <c r="G314" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -13356,7 +13372,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G315" s="3" t="inlineStr">
+      <c r="G315" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -13397,7 +13413,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G316" s="3" t="inlineStr">
+      <c r="G316" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -13438,7 +13454,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G317" s="3" t="inlineStr">
+      <c r="G317" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13479,7 +13495,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G318" s="3" t="inlineStr">
+      <c r="G318" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13520,7 +13536,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G319" s="3" t="inlineStr">
+      <c r="G319" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -13561,7 +13577,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G320" s="3" t="inlineStr">
+      <c r="G320" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -13602,7 +13618,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G321" s="3" t="inlineStr">
+      <c r="G321" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -13643,7 +13659,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G322" s="3" t="inlineStr">
+      <c r="G322" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -13684,7 +13700,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G323" s="3" t="inlineStr">
+      <c r="G323" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -13725,7 +13741,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G324" s="3" t="inlineStr">
+      <c r="G324" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -13766,7 +13782,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G325" s="3" t="inlineStr">
+      <c r="G325" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -13807,7 +13823,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G326" s="3" t="inlineStr">
+      <c r="G326" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -13848,7 +13864,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G327" s="3" t="inlineStr">
+      <c r="G327" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13889,7 +13905,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G328" s="3" t="inlineStr">
+      <c r="G328" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13930,7 +13946,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G329" s="3" t="inlineStr">
+      <c r="G329" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -13971,7 +13987,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G330" s="3" t="inlineStr">
+      <c r="G330" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -14012,7 +14028,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G331" s="3" t="inlineStr">
+      <c r="G331" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -14053,7 +14069,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G332" s="3" t="inlineStr">
+      <c r="G332" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -14094,7 +14110,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G333" s="3" t="inlineStr">
+      <c r="G333" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -14135,7 +14151,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G334" s="3" t="inlineStr">
+      <c r="G334" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -14176,7 +14192,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G335" s="3" t="inlineStr">
+      <c r="G335" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -14217,7 +14233,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G336" s="3" t="inlineStr">
+      <c r="G336" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -14258,7 +14274,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G337" s="3" t="inlineStr">
+      <c r="G337" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -14299,7 +14315,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G338" s="3" t="inlineStr">
+      <c r="G338" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -14340,7 +14356,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G339" s="3" t="inlineStr">
+      <c r="G339" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -14381,7 +14397,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G340" s="3" t="inlineStr">
+      <c r="G340" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -14422,7 +14438,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G341" s="3" t="inlineStr">
+      <c r="G341" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -14463,7 +14479,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G342" s="3" t="inlineStr">
+      <c r="G342" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -14504,7 +14520,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G343" s="3" t="inlineStr">
+      <c r="G343" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -14545,7 +14561,7 @@
           <t>竹田祐二</t>
         </is>
       </c>
-      <c r="G344" s="3" t="inlineStr">
+      <c r="G344" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -14586,7 +14602,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G345" s="3" t="inlineStr">
+      <c r="G345" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -14627,7 +14643,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G346" s="3" t="inlineStr">
+      <c r="G346" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -14668,7 +14684,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G347" s="3" t="inlineStr">
+      <c r="G347" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -14709,7 +14725,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G348" s="3" t="inlineStr">
+      <c r="G348" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -14750,7 +14766,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G349" s="3" t="inlineStr">
+      <c r="G349" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -14778,7 +14794,7 @@
       </c>
       <c r="D350" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E350" s="4" t="inlineStr">
@@ -14791,7 +14807,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G350" s="3" t="inlineStr">
+      <c r="G350" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -14819,7 +14835,7 @@
       </c>
       <c r="D351" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E351" s="4" t="inlineStr">
@@ -14832,7 +14848,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G351" s="3" t="inlineStr">
+      <c r="G351" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -14873,7 +14889,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G352" s="3" t="inlineStr">
+      <c r="G352" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -14901,7 +14917,7 @@
       </c>
       <c r="D353" s="3" t="inlineStr">
         <is>
-          <t>アクサ生命「入院・手術・通院等証明書（診断書）」</t>
+          <t>一般診断書</t>
         </is>
       </c>
       <c r="E353" s="4" t="inlineStr">
@@ -14914,7 +14930,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G353" s="3" t="inlineStr">
+      <c r="G353" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -14942,7 +14958,7 @@
       </c>
       <c r="D354" s="3" t="inlineStr">
         <is>
-          <t>一般診断書</t>
+          <t>アクサ生命「入院・手術・通院等証明書（診断書）」</t>
         </is>
       </c>
       <c r="E354" s="4" t="inlineStr">
@@ -14955,7 +14971,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G354" s="3" t="inlineStr">
+      <c r="G354" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -14996,7 +15012,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G355" s="3" t="inlineStr">
+      <c r="G355" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -15037,7 +15053,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G356" s="3" t="inlineStr">
+      <c r="G356" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -15078,7 +15094,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G357" s="3" t="inlineStr">
+      <c r="G357" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -15119,7 +15135,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G358" s="3" t="inlineStr">
+      <c r="G358" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -15160,7 +15176,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G359" s="3" t="inlineStr">
+      <c r="G359" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -15201,7 +15217,7 @@
           <t>竹田伸也</t>
         </is>
       </c>
-      <c r="G360" s="3" t="inlineStr">
+      <c r="G360" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -15242,7 +15258,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G361" s="3" t="inlineStr">
+      <c r="G361" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -15283,7 +15299,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G362" s="3" t="inlineStr">
+      <c r="G362" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -15324,7 +15340,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G363" s="3" t="inlineStr">
+      <c r="G363" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -15365,7 +15381,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G364" s="3" t="inlineStr">
+      <c r="G364" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -15406,7 +15422,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G365" s="3" t="inlineStr">
+      <c r="G365" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -15447,7 +15463,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G366" s="3" t="inlineStr">
+      <c r="G366" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -15488,7 +15504,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G367" s="3" t="inlineStr">
+      <c r="G367" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -15529,7 +15545,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G368" s="3" t="inlineStr">
+      <c r="G368" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -15570,7 +15586,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G369" s="3" t="inlineStr">
+      <c r="G369" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -15611,7 +15627,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G370" s="3" t="inlineStr">
+      <c r="G370" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -15652,7 +15668,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G371" s="3" t="inlineStr">
+      <c r="G371" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -15693,7 +15709,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G372" s="3" t="inlineStr">
+      <c r="G372" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -15734,7 +15750,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G373" s="3" t="inlineStr">
+      <c r="G373" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -15775,7 +15791,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G374" s="3" t="inlineStr">
+      <c r="G374" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -15816,7 +15832,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G375" s="3" t="inlineStr">
+      <c r="G375" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -15857,7 +15873,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G376" s="3" t="inlineStr">
+      <c r="G376" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -15898,7 +15914,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G377" s="3" t="inlineStr">
+      <c r="G377" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -15939,7 +15955,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G378" s="3" t="inlineStr">
+      <c r="G378" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -15967,7 +15983,7 @@
       </c>
       <c r="D379" s="3" t="inlineStr">
         <is>
-          <t>一般診断書</t>
+          <t>傷病手当申請書</t>
         </is>
       </c>
       <c r="E379" s="4" t="inlineStr">
@@ -15977,17 +15993,17 @@
       </c>
       <c r="F379" s="4" t="inlineStr">
         <is>
-          <t>田中宏明</t>
-        </is>
-      </c>
-      <c r="G379" s="3" t="inlineStr">
-        <is>
-          <t>高林</t>
+          <t>横山敏啓</t>
+        </is>
+      </c>
+      <c r="G379" s="4" t="inlineStr">
+        <is>
+          <t>山本</t>
         </is>
       </c>
       <c r="H379" s="6" t="inlineStr">
         <is>
-          <t>2025/02/01</t>
+          <t>2025/02/03</t>
         </is>
       </c>
       <c r="I379" s="3" t="inlineStr"/>
@@ -16008,7 +16024,7 @@
       </c>
       <c r="D380" s="3" t="inlineStr">
         <is>
-          <t>傷病手当申請書</t>
+          <t>一般診断書</t>
         </is>
       </c>
       <c r="E380" s="4" t="inlineStr">
@@ -16018,17 +16034,17 @@
       </c>
       <c r="F380" s="4" t="inlineStr">
         <is>
-          <t>横山敏啓</t>
-        </is>
-      </c>
-      <c r="G380" s="3" t="inlineStr">
-        <is>
-          <t>山本</t>
+          <t>田中宏明</t>
+        </is>
+      </c>
+      <c r="G380" s="4" t="inlineStr">
+        <is>
+          <t>高林</t>
         </is>
       </c>
       <c r="H380" s="6" t="inlineStr">
         <is>
-          <t>2025/02/03</t>
+          <t>2025/02/01</t>
         </is>
       </c>
       <c r="I380" s="3" t="inlineStr"/>
@@ -16062,7 +16078,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G381" s="3" t="inlineStr">
+      <c r="G381" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -16103,7 +16119,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G382" s="3" t="inlineStr">
+      <c r="G382" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -16144,7 +16160,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G383" s="3" t="inlineStr">
+      <c r="G383" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -16185,7 +16201,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G384" s="3" t="inlineStr">
+      <c r="G384" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -16213,7 +16229,7 @@
       </c>
       <c r="D385" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E385" s="4" t="inlineStr">
@@ -16226,7 +16242,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G385" s="3" t="inlineStr">
+      <c r="G385" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -16254,7 +16270,7 @@
       </c>
       <c r="D386" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E386" s="4" t="inlineStr">
@@ -16267,7 +16283,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G386" s="3" t="inlineStr">
+      <c r="G386" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -16308,7 +16324,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G387" s="3" t="inlineStr">
+      <c r="G387" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -16349,7 +16365,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G388" s="3" t="inlineStr">
+      <c r="G388" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -16390,7 +16406,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G389" s="3" t="inlineStr">
+      <c r="G389" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -16431,7 +16447,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G390" s="3" t="inlineStr">
+      <c r="G390" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -16472,7 +16488,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G391" s="3" t="inlineStr">
+      <c r="G391" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -16513,7 +16529,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G392" s="3" t="inlineStr">
+      <c r="G392" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -16554,7 +16570,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G393" s="3" t="inlineStr">
+      <c r="G393" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -16595,7 +16611,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G394" s="3" t="inlineStr">
+      <c r="G394" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -16636,7 +16652,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G395" s="3" t="inlineStr">
+      <c r="G395" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -16677,7 +16693,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G396" s="3" t="inlineStr">
+      <c r="G396" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -16718,7 +16734,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G397" s="3" t="inlineStr">
+      <c r="G397" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -16759,7 +16775,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G398" s="3" t="inlineStr">
+      <c r="G398" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -16800,7 +16816,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G399" s="3" t="inlineStr">
+      <c r="G399" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -16841,7 +16857,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G400" s="3" t="inlineStr">
+      <c r="G400" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -16882,7 +16898,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G401" s="3" t="inlineStr">
+      <c r="G401" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -16923,7 +16939,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G402" s="3" t="inlineStr">
+      <c r="G402" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -16964,7 +16980,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G403" s="3" t="inlineStr">
+      <c r="G403" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -17005,7 +17021,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G404" s="3" t="inlineStr">
+      <c r="G404" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -17046,7 +17062,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G405" s="3" t="inlineStr">
+      <c r="G405" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -17087,7 +17103,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G406" s="3" t="inlineStr">
+      <c r="G406" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -17128,7 +17144,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G407" s="3" t="inlineStr">
+      <c r="G407" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -17169,7 +17185,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G408" s="3" t="inlineStr">
+      <c r="G408" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -17210,7 +17226,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G409" s="3" t="inlineStr">
+      <c r="G409" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -17251,7 +17267,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G410" s="3" t="inlineStr">
+      <c r="G410" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -17292,7 +17308,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G411" s="3" t="inlineStr">
+      <c r="G411" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -17333,7 +17349,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G412" s="3" t="inlineStr">
+      <c r="G412" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -17374,7 +17390,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G413" s="3" t="inlineStr">
+      <c r="G413" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -17415,7 +17431,7 @@
           <t>竹田伸也</t>
         </is>
       </c>
-      <c r="G414" s="3" t="inlineStr">
+      <c r="G414" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -17456,7 +17472,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G415" s="3" t="inlineStr">
+      <c r="G415" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -17497,7 +17513,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G416" s="3" t="inlineStr">
+      <c r="G416" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -17538,7 +17554,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G417" s="3" t="inlineStr">
+      <c r="G417" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -17579,7 +17595,7 @@
           <t>竹田祐二</t>
         </is>
       </c>
-      <c r="G418" s="3" t="inlineStr">
+      <c r="G418" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -17620,7 +17636,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G419" s="3" t="inlineStr">
+      <c r="G419" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -17661,7 +17677,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G420" s="3" t="inlineStr">
+      <c r="G420" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -17702,7 +17718,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G421" s="3" t="inlineStr">
+      <c r="G421" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -17743,7 +17759,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G422" s="3" t="inlineStr">
+      <c r="G422" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -17784,7 +17800,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G423" s="3" t="inlineStr">
+      <c r="G423" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -17825,7 +17841,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G424" s="3" t="inlineStr">
+      <c r="G424" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -17866,7 +17882,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G425" s="3" t="inlineStr">
+      <c r="G425" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -17907,7 +17923,7 @@
           <t>生駒透</t>
         </is>
       </c>
-      <c r="G426" s="3" t="inlineStr">
+      <c r="G426" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -17948,7 +17964,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G427" s="3" t="inlineStr">
+      <c r="G427" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -17989,7 +18005,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G428" s="3" t="inlineStr">
+      <c r="G428" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18030,7 +18046,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G429" s="3" t="inlineStr">
+      <c r="G429" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -18071,7 +18087,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G430" s="3" t="inlineStr">
+      <c r="G430" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18112,7 +18128,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G431" s="3" t="inlineStr">
+      <c r="G431" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -18153,7 +18169,7 @@
           <t>小野地雄貴</t>
         </is>
       </c>
-      <c r="G432" s="3" t="inlineStr">
+      <c r="G432" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18194,7 +18210,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G433" s="3" t="inlineStr">
+      <c r="G433" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -18235,7 +18251,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G434" s="3" t="inlineStr">
+      <c r="G434" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -18276,7 +18292,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G435" s="3" t="inlineStr">
+      <c r="G435" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18317,7 +18333,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G436" s="3" t="inlineStr">
+      <c r="G436" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18358,7 +18374,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G437" s="3" t="inlineStr">
+      <c r="G437" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18399,7 +18415,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G438" s="3" t="inlineStr">
+      <c r="G438" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18440,7 +18456,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G439" s="3" t="inlineStr">
+      <c r="G439" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -18481,7 +18497,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G440" s="3" t="inlineStr">
+      <c r="G440" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -18522,7 +18538,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G441" s="3" t="inlineStr">
+      <c r="G441" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -18563,7 +18579,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G442" s="3" t="inlineStr">
+      <c r="G442" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -18604,7 +18620,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G443" s="3" t="inlineStr">
+      <c r="G443" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -18645,7 +18661,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G444" s="3" t="inlineStr">
+      <c r="G444" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -18686,7 +18702,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G445" s="3" t="inlineStr">
+      <c r="G445" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -18727,7 +18743,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G446" s="3" t="inlineStr">
+      <c r="G446" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -18768,7 +18784,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G447" s="3" t="inlineStr">
+      <c r="G447" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -18809,7 +18825,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G448" s="3" t="inlineStr">
+      <c r="G448" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -18850,7 +18866,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G449" s="3" t="inlineStr">
+      <c r="G449" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -18891,7 +18907,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G450" s="3" t="inlineStr">
+      <c r="G450" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -18932,7 +18948,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G451" s="3" t="inlineStr">
+      <c r="G451" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -18973,7 +18989,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G452" s="3" t="inlineStr">
+      <c r="G452" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -19014,7 +19030,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G453" s="3" t="inlineStr">
+      <c r="G453" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -19055,7 +19071,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G454" s="3" t="inlineStr">
+      <c r="G454" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -19096,7 +19112,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G455" s="3" t="inlineStr">
+      <c r="G455" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -19137,7 +19153,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G456" s="3" t="inlineStr">
+      <c r="G456" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -19178,7 +19194,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G457" s="3" t="inlineStr">
+      <c r="G457" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -19219,7 +19235,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G458" s="3" t="inlineStr">
+      <c r="G458" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -19260,7 +19276,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G459" s="3" t="inlineStr">
+      <c r="G459" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -19301,7 +19317,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G460" s="3" t="inlineStr">
+      <c r="G460" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -19342,7 +19358,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G461" s="3" t="inlineStr">
+      <c r="G461" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -19383,7 +19399,7 @@
           <t>栗田康寿</t>
         </is>
       </c>
-      <c r="G462" s="3" t="inlineStr">
+      <c r="G462" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -19424,7 +19440,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G463" s="3" t="inlineStr">
+      <c r="G463" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -19465,7 +19481,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G464" s="3" t="inlineStr">
+      <c r="G464" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -19506,7 +19522,7 @@
           <t>山本隆介</t>
         </is>
       </c>
-      <c r="G465" s="3" t="inlineStr">
+      <c r="G465" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -19547,7 +19563,7 @@
           <t>梅原康次</t>
         </is>
       </c>
-      <c r="G466" s="3" t="inlineStr">
+      <c r="G466" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -19588,7 +19604,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G467" s="3" t="inlineStr">
+      <c r="G467" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -19629,7 +19645,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G468" s="3" t="inlineStr">
+      <c r="G468" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -19670,7 +19686,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G469" s="3" t="inlineStr">
+      <c r="G469" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -19698,7 +19714,7 @@
       </c>
       <c r="D470" s="3" t="inlineStr">
         <is>
-          <t>太陽生命「入院・手術等証明書（診断書）」</t>
+          <t>東京海上日動火災保険「診断書（傷害保険用）」</t>
         </is>
       </c>
       <c r="E470" s="4" t="inlineStr">
@@ -19711,7 +19727,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G470" s="3" t="inlineStr">
+      <c r="G470" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -19739,7 +19755,7 @@
       </c>
       <c r="D471" s="3" t="inlineStr">
         <is>
-          <t>東京海上日動火災保険「診断書（傷害保険用）」</t>
+          <t>太陽生命「入院・手術等証明書（診断書）」</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
@@ -19752,7 +19768,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G471" s="3" t="inlineStr">
+      <c r="G471" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -19793,7 +19809,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G472" s="3" t="inlineStr">
+      <c r="G472" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -19834,7 +19850,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G473" s="3" t="inlineStr">
+      <c r="G473" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -19875,7 +19891,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G474" s="3" t="inlineStr">
+      <c r="G474" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -19916,7 +19932,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G475" s="3" t="inlineStr">
+      <c r="G475" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -19957,7 +19973,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G476" s="3" t="inlineStr">
+      <c r="G476" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -19998,7 +20014,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G477" s="3" t="inlineStr">
+      <c r="G477" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -20039,7 +20055,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G478" s="3" t="inlineStr">
+      <c r="G478" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -20080,7 +20096,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G479" s="3" t="inlineStr">
+      <c r="G479" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -20121,7 +20137,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G480" s="3" t="inlineStr">
+      <c r="G480" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -20162,7 +20178,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G481" s="3" t="inlineStr">
+      <c r="G481" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -20203,7 +20219,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G482" s="3" t="inlineStr">
+      <c r="G482" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -20244,7 +20260,7 @@
           <t>植田義之</t>
         </is>
       </c>
-      <c r="G483" s="3" t="inlineStr">
+      <c r="G483" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -20285,7 +20301,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G484" s="3" t="inlineStr">
+      <c r="G484" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -20326,7 +20342,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G485" s="3" t="inlineStr">
+      <c r="G485" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -20367,7 +20383,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G486" s="3" t="inlineStr">
+      <c r="G486" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -20408,7 +20424,7 @@
           <t>鎌田竜馬</t>
         </is>
       </c>
-      <c r="G487" s="3" t="inlineStr">
+      <c r="G487" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20449,7 +20465,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G488" s="3" t="inlineStr">
+      <c r="G488" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -20490,7 +20506,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G489" s="3" t="inlineStr">
+      <c r="G489" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -20531,7 +20547,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G490" s="3" t="inlineStr">
+      <c r="G490" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -20572,7 +20588,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G491" s="3" t="inlineStr">
+      <c r="G491" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -20613,7 +20629,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G492" s="3" t="inlineStr">
+      <c r="G492" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20654,7 +20670,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G493" s="3" t="inlineStr">
+      <c r="G493" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -20695,7 +20711,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G494" s="3" t="inlineStr">
+      <c r="G494" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20736,7 +20752,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G495" s="3" t="inlineStr">
+      <c r="G495" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20777,7 +20793,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G496" s="3" t="inlineStr">
+      <c r="G496" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20818,7 +20834,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G497" s="3" t="inlineStr">
+      <c r="G497" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20859,7 +20875,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G498" s="3" t="inlineStr">
+      <c r="G498" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20900,7 +20916,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G499" s="3" t="inlineStr">
+      <c r="G499" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20941,7 +20957,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G500" s="3" t="inlineStr">
+      <c r="G500" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -20982,7 +20998,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G501" s="3" t="inlineStr">
+      <c r="G501" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -21023,7 +21039,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G502" s="3" t="inlineStr">
+      <c r="G502" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -21064,7 +21080,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G503" s="3" t="inlineStr">
+      <c r="G503" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -21105,7 +21121,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G504" s="3" t="inlineStr">
+      <c r="G504" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -21146,7 +21162,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G505" s="3" t="inlineStr">
+      <c r="G505" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -21187,7 +21203,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G506" s="3" t="inlineStr">
+      <c r="G506" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -21228,7 +21244,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G507" s="3" t="inlineStr">
+      <c r="G507" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -21269,7 +21285,7 @@
           <t>増田秀輔</t>
         </is>
       </c>
-      <c r="G508" s="3" t="inlineStr">
+      <c r="G508" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -21310,7 +21326,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G509" s="3" t="inlineStr">
+      <c r="G509" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -21351,7 +21367,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G510" s="3" t="inlineStr">
+      <c r="G510" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -21392,7 +21408,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G511" s="3" t="inlineStr">
+      <c r="G511" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -21433,7 +21449,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G512" s="3" t="inlineStr">
+      <c r="G512" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -21474,7 +21490,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G513" s="3" t="inlineStr">
+      <c r="G513" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -21515,7 +21531,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G514" s="3" t="inlineStr">
+      <c r="G514" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -21556,7 +21572,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G515" s="3" t="inlineStr">
+      <c r="G515" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -21597,7 +21613,7 @@
           <t>田中伸弥</t>
         </is>
       </c>
-      <c r="G516" s="3" t="inlineStr">
+      <c r="G516" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -21638,7 +21654,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G517" s="3" t="inlineStr">
+      <c r="G517" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -21679,7 +21695,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G518" s="3" t="inlineStr">
+      <c r="G518" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -21720,7 +21736,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G519" s="3" t="inlineStr">
+      <c r="G519" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -21761,7 +21777,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G520" s="3" t="inlineStr">
+      <c r="G520" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -21802,7 +21818,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G521" s="3" t="inlineStr">
+      <c r="G521" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -21843,7 +21859,7 @@
           <t>小野地雄貴</t>
         </is>
       </c>
-      <c r="G522" s="3" t="inlineStr">
+      <c r="G522" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -21884,7 +21900,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G523" s="3" t="inlineStr">
+      <c r="G523" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -21925,7 +21941,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G524" s="3" t="inlineStr">
+      <c r="G524" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -21966,7 +21982,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G525" s="3" t="inlineStr">
+      <c r="G525" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -22007,7 +22023,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G526" s="3" t="inlineStr">
+      <c r="G526" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -22048,7 +22064,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G527" s="3" t="inlineStr">
+      <c r="G527" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -22076,7 +22092,7 @@
       </c>
       <c r="D528" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E528" s="4" t="inlineStr">
@@ -22089,7 +22105,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G528" s="3" t="inlineStr">
+      <c r="G528" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -22117,7 +22133,7 @@
       </c>
       <c r="D529" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E529" s="4" t="inlineStr">
@@ -22130,7 +22146,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G529" s="3" t="inlineStr">
+      <c r="G529" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -22171,7 +22187,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G530" s="3" t="inlineStr">
+      <c r="G530" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -22212,7 +22228,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G531" s="3" t="inlineStr">
+      <c r="G531" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -22253,7 +22269,7 @@
           <t>竹田伸也</t>
         </is>
       </c>
-      <c r="G532" s="3" t="inlineStr">
+      <c r="G532" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -22294,7 +22310,7 @@
           <t>太田宗徳</t>
         </is>
       </c>
-      <c r="G533" s="3" t="inlineStr">
+      <c r="G533" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -22335,7 +22351,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G534" s="3" t="inlineStr">
+      <c r="G534" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -22376,7 +22392,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G535" s="3" t="inlineStr">
+      <c r="G535" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -22417,7 +22433,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G536" s="3" t="inlineStr">
+      <c r="G536" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -22458,7 +22474,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G537" s="3" t="inlineStr">
+      <c r="G537" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -22499,7 +22515,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G538" s="3" t="inlineStr">
+      <c r="G538" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -22540,7 +22556,7 @@
           <t>植田義之</t>
         </is>
       </c>
-      <c r="G539" s="3" t="inlineStr">
+      <c r="G539" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -22581,7 +22597,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G540" s="3" t="inlineStr">
+      <c r="G540" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -22622,7 +22638,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G541" s="3" t="inlineStr">
+      <c r="G541" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -22663,7 +22679,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G542" s="3" t="inlineStr">
+      <c r="G542" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -22704,7 +22720,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G543" s="3" t="inlineStr">
+      <c r="G543" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -22745,7 +22761,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G544" s="3" t="inlineStr">
+      <c r="G544" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -22786,7 +22802,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G545" s="3" t="inlineStr">
+      <c r="G545" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -22827,7 +22843,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G546" s="3" t="inlineStr">
+      <c r="G546" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -22868,7 +22884,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G547" s="3" t="inlineStr">
+      <c r="G547" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -22909,7 +22925,7 @@
           <t>高木英昌</t>
         </is>
       </c>
-      <c r="G548" s="3" t="inlineStr">
+      <c r="G548" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -22950,7 +22966,7 @@
           <t>橋本義弘</t>
         </is>
       </c>
-      <c r="G549" s="3" t="inlineStr">
+      <c r="G549" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -22991,7 +23007,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G550" s="3" t="inlineStr">
+      <c r="G550" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -23032,7 +23048,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G551" s="3" t="inlineStr">
+      <c r="G551" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -23073,7 +23089,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G552" s="3" t="inlineStr">
+      <c r="G552" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -23114,7 +23130,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G553" s="3" t="inlineStr">
+      <c r="G553" s="4" t="inlineStr">
         <is>
           <t>花﨑</t>
         </is>
@@ -23155,7 +23171,7 @@
           <t>竹田伸也</t>
         </is>
       </c>
-      <c r="G554" s="3" t="inlineStr">
+      <c r="G554" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -23196,7 +23212,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G555" s="3" t="inlineStr">
+      <c r="G555" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -23237,7 +23253,7 @@
           <t>田中宏明</t>
         </is>
       </c>
-      <c r="G556" s="3" t="inlineStr">
+      <c r="G556" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -23278,7 +23294,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G557" s="3" t="inlineStr">
+      <c r="G557" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -23319,7 +23335,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G558" s="3" t="inlineStr">
+      <c r="G558" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -23360,7 +23376,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G559" s="3" t="inlineStr">
+      <c r="G559" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -23401,7 +23417,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G560" s="3" t="inlineStr">
+      <c r="G560" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -23442,7 +23458,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G561" s="3" t="inlineStr">
+      <c r="G561" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -23483,7 +23499,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G562" s="3" t="inlineStr">
+      <c r="G562" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -23511,7 +23527,7 @@
       </c>
       <c r="D563" s="3" t="inlineStr">
         <is>
-          <t>診療情報提供書</t>
+          <t>主治医意見書</t>
         </is>
       </c>
       <c r="E563" s="4" t="inlineStr">
@@ -23524,7 +23540,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G563" s="3" t="inlineStr">
+      <c r="G563" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -23552,7 +23568,7 @@
       </c>
       <c r="D564" s="3" t="inlineStr">
         <is>
-          <t>主治医意見書</t>
+          <t>診療情報提供書</t>
         </is>
       </c>
       <c r="E564" s="4" t="inlineStr">
@@ -23565,7 +23581,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G564" s="3" t="inlineStr">
+      <c r="G564" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -23606,7 +23622,7 @@
           <t>瀬川莉恵子</t>
         </is>
       </c>
-      <c r="G565" s="3" t="inlineStr">
+      <c r="G565" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -23647,7 +23663,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G566" s="3" t="inlineStr">
+      <c r="G566" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -23688,7 +23704,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G567" s="3" t="inlineStr">
+      <c r="G567" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -23729,7 +23745,7 @@
           <t>垣内大毅</t>
         </is>
       </c>
-      <c r="G568" s="3" t="inlineStr">
+      <c r="G568" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -23770,7 +23786,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G569" s="3" t="inlineStr">
+      <c r="G569" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -23811,7 +23827,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G570" s="3" t="inlineStr">
+      <c r="G570" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -23852,7 +23868,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G571" s="3" t="inlineStr">
+      <c r="G571" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -23893,7 +23909,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G572" s="3" t="inlineStr">
+      <c r="G572" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -23934,7 +23950,7 @@
           <t>平名浩史</t>
         </is>
       </c>
-      <c r="G573" s="3" t="inlineStr">
+      <c r="G573" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -23975,7 +23991,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G574" s="3" t="inlineStr">
+      <c r="G574" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -24016,7 +24032,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G575" s="3" t="inlineStr">
+      <c r="G575" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -24057,7 +24073,7 @@
           <t>徳永貴広</t>
         </is>
       </c>
-      <c r="G576" s="3" t="inlineStr">
+      <c r="G576" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -24098,7 +24114,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G577" s="3" t="inlineStr">
+      <c r="G577" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -24139,7 +24155,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G578" s="3" t="inlineStr">
+      <c r="G578" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24180,7 +24196,7 @@
           <t>榎本洸</t>
         </is>
       </c>
-      <c r="G579" s="3" t="inlineStr">
+      <c r="G579" s="4" t="inlineStr">
         <is>
           <t>高林</t>
         </is>
@@ -24221,7 +24237,7 @@
           <t>二村明広</t>
         </is>
       </c>
-      <c r="G580" s="3" t="inlineStr">
+      <c r="G580" s="4" t="inlineStr">
         <is>
           <t>鴨林</t>
         </is>
@@ -24262,7 +24278,7 @@
           <t>平谷和幸</t>
         </is>
       </c>
-      <c r="G581" s="3" t="inlineStr">
+      <c r="G581" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24303,7 +24319,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G582" s="3" t="inlineStr">
+      <c r="G582" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -24344,7 +24360,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G583" s="3" t="inlineStr">
+      <c r="G583" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -24385,7 +24401,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G584" s="3" t="inlineStr">
+      <c r="G584" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -24426,7 +24442,7 @@
           <t>北澤勉</t>
         </is>
       </c>
-      <c r="G585" s="3" t="inlineStr">
+      <c r="G585" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -24467,7 +24483,7 @@
           <t>小倉由起子</t>
         </is>
       </c>
-      <c r="G586" s="3" t="inlineStr">
+      <c r="G586" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -24508,7 +24524,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G587" s="3" t="inlineStr">
+      <c r="G587" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -24549,7 +24565,7 @@
           <t>増田秀輔</t>
         </is>
       </c>
-      <c r="G588" s="3" t="inlineStr">
+      <c r="G588" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24590,7 +24606,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G589" s="3" t="inlineStr">
+      <c r="G589" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24631,7 +24647,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G590" s="3" t="inlineStr">
+      <c r="G590" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24672,7 +24688,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G591" s="3" t="inlineStr">
+      <c r="G591" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24713,7 +24729,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G592" s="3" t="inlineStr">
+      <c r="G592" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -24754,7 +24770,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G593" s="3" t="inlineStr">
+      <c r="G593" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -24795,7 +24811,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G594" s="3" t="inlineStr">
+      <c r="G594" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -24836,7 +24852,7 @@
           <t>横山敏啓</t>
         </is>
       </c>
-      <c r="G595" s="3" t="inlineStr">
+      <c r="G595" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -24877,7 +24893,7 @@
           <t>増田秀輔</t>
         </is>
       </c>
-      <c r="G596" s="3" t="inlineStr">
+      <c r="G596" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -24918,7 +24934,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G597" s="3" t="inlineStr">
+      <c r="G597" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -24959,7 +24975,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G598" s="3" t="inlineStr">
+      <c r="G598" s="4" t="inlineStr">
         <is>
           <t>山本</t>
         </is>
@@ -25000,7 +25016,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G599" s="3" t="inlineStr">
+      <c r="G599" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -25041,7 +25057,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G600" s="3" t="inlineStr">
+      <c r="G600" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -25082,7 +25098,7 @@
           <t>本藤有智</t>
         </is>
       </c>
-      <c r="G601" s="3" t="inlineStr">
+      <c r="G601" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -25123,7 +25139,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G602" s="3" t="inlineStr">
+      <c r="G602" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -25164,7 +25180,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G603" s="3" t="inlineStr">
+      <c r="G603" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -25205,7 +25221,7 @@
           <t>太田雅也</t>
         </is>
       </c>
-      <c r="G604" s="3" t="inlineStr">
+      <c r="G604" s="4" t="inlineStr">
         <is>
           <t>高宮</t>
         </is>
@@ -25246,7 +25262,7 @@
           <t>豊田茂郎</t>
         </is>
       </c>
-      <c r="G605" s="3" t="inlineStr">
+      <c r="G605" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -25287,7 +25303,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G606" s="3" t="inlineStr">
+      <c r="G606" s="4" t="inlineStr">
         <is>
           <t>沖野</t>
         </is>
@@ -25328,7 +25344,7 @@
           <t>波部孝弘</t>
         </is>
       </c>
-      <c r="G607" s="3" t="inlineStr">
+      <c r="G607" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -25369,7 +25385,7 @@
           <t>刀塚俊起</t>
         </is>
       </c>
-      <c r="G608" s="3" t="inlineStr"/>
+      <c r="G608" s="4" t="inlineStr"/>
       <c r="H608" s="6" t="inlineStr">
         <is>
           <t>2025/02/27</t>
@@ -25406,7 +25422,7 @@
           <t>本多正治</t>
         </is>
       </c>
-      <c r="G609" s="3" t="inlineStr">
+      <c r="G609" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -25447,7 +25463,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G610" s="3" t="inlineStr">
+      <c r="G610" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -25488,7 +25504,7 @@
           <t>駒井理</t>
         </is>
       </c>
-      <c r="G611" s="3" t="inlineStr">
+      <c r="G611" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -25529,7 +25545,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G612" s="3" t="inlineStr">
+      <c r="G612" s="4" t="inlineStr">
         <is>
           <t>大代</t>
         </is>
@@ -25570,7 +25586,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G613" s="3" t="inlineStr">
+      <c r="G613" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -25611,7 +25627,7 @@
           <t>渡辺裕士</t>
         </is>
       </c>
-      <c r="G614" s="3" t="inlineStr">
+      <c r="G614" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -25652,7 +25668,7 @@
           <t>植田芳樹</t>
         </is>
       </c>
-      <c r="G615" s="3" t="inlineStr">
+      <c r="G615" s="4" t="inlineStr">
         <is>
           <t>松島</t>
         </is>
@@ -25693,7 +25709,7 @@
           <t>佐々木彰一</t>
         </is>
       </c>
-      <c r="G616" s="3" t="inlineStr">
+      <c r="G616" s="4" t="inlineStr">
         <is>
           <t>中野</t>
         </is>
@@ -25734,7 +25750,7 @@
           <t>明橋大二</t>
         </is>
       </c>
-      <c r="G617" s="3" t="inlineStr"/>
+      <c r="G617" s="4" t="inlineStr"/>
       <c r="H617" s="6" t="inlineStr">
         <is>
           <t>2025/02/27</t>
@@ -25771,7 +25787,7 @@
           <t>太田悟</t>
         </is>
       </c>
-      <c r="G618" s="3" t="inlineStr">
+      <c r="G618" s="4" t="inlineStr">
         <is>
           <t>渋井</t>
         </is>
@@ -25812,7 +25828,7 @@
           <t>真野鋭志</t>
         </is>
       </c>
-      <c r="G619" s="3" t="inlineStr">
+      <c r="G619" s="4" t="inlineStr">
         <is>
           <t>白岡</t>
         </is>
@@ -25826,5 +25842,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>